--- a/biology/Botanique/Glaïeul_des_marais/Glaïeul_des_marais.xlsx
+++ b/biology/Botanique/Glaïeul_des_marais/Glaïeul_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul_des_marais</t>
+          <t>Glaïeul_des_marais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gladiolus palustris
 Le glaïeul des marais (Gladiolus palustris) est une plante vivace de la famille des Iridaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul_des_marais</t>
+          <t>Glaïeul_des_marais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Altitude : maximum à 1 200 mètres
 Distribution : sub-méditerranéenne
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul_des_marais</t>
+          <t>Glaïeul_des_marais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prés humides, clairières des forêts dont le sol argileux provoque de fort contraste entre la sécheresse estivale et l'omniprésence d'eau en hiver. Le glaïeul des marais aime la lumière.
 Il est présent dans de rares zones en France, notamment en Haut et Bas-Rhin, Jura, Ain et Haute-Savoie.
